--- a/Study 1/results/SCIEEFF_sem_results.xlsx
+++ b/Study 1/results/SCIEEFF_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.654341056332295</v>
+        <v>0.654341045669259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0968214387559146</v>
+        <v>0.0968214377387536</v>
       </c>
       <c r="D2" t="n">
-        <v>6.75822488015158</v>
+        <v>6.75822484101941</v>
       </c>
       <c r="E2" t="n">
         <v>0.0000000000139692701850436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.464574523439352</v>
+        <v>0.464574514769915</v>
       </c>
       <c r="G2" t="n">
-        <v>0.844107589225238</v>
+        <v>0.844107576568603</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.143707275551751</v>
+        <v>0.143707271287723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126707892629743</v>
+        <v>0.12670788760938</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13416198919575</v>
+        <v>1.13416200048058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25672660505394</v>
+        <v>0.256726600321192</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.104635630559513</v>
+        <v>-0.104635624983811</v>
       </c>
       <c r="G3" t="n">
-        <v>0.392050181663014</v>
+        <v>0.392050167559257</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.292445919194438</v>
+        <v>-0.292445916063851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.122439375530627</v>
+        <v>0.122439371359753</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.38849567736716</v>
+        <v>-2.38849573316236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0169175073394412</v>
+        <v>0.0169175047706367</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.532422685524042</v>
+        <v>-0.532422674218691</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0524691528648339</v>
+        <v>-0.052469157909011</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.131679319214955</v>
+        <v>0.131679315307817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.116102744113591</v>
+        <v>0.116102739513421</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13416198919575</v>
+        <v>1.13416200048058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25672660505394</v>
+        <v>0.256726600321192</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0958778777539523</v>
+        <v>-0.0958778726449232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.359236516183863</v>
+        <v>0.359236503260557</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.315026830093653</v>
+        <v>-0.315026826721341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.131893405995571</v>
+        <v>0.131893401502646</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.38849567736716</v>
+        <v>-2.38849573316236</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0169175073394412</v>
+        <v>0.0169175047706367</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.573533155643291</v>
+        <v>-0.573533143465009</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0565205045440152</v>
+        <v>-0.0565205099776733</v>
       </c>
     </row>
     <row r="7">
@@ -582,22 +582,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.590219621995188</v>
+        <v>0.590219621596961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115147145739392</v>
+        <v>0.115147145083866</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12578595157721</v>
+        <v>5.12578597729957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000000296299082602758</v>
+        <v>0.00000029629904219064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.364535363423395</v>
+        <v>0.364535364309975</v>
       </c>
       <c r="G7" t="n">
-        <v>0.81590388056698</v>
+        <v>0.815903878883947</v>
       </c>
     </row>
     <row r="8">
@@ -605,22 +605,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0563545890183269</v>
+        <v>-0.0563545886746348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130807840574192</v>
+        <v>0.130807840556375</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.430819657070661</v>
+        <v>-0.430819654501883</v>
       </c>
       <c r="E8" t="n">
-        <v>0.666599505470135</v>
+        <v>0.666599507338074</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3127332454392</v>
+        <v>-0.312733245060587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.200024067402546</v>
+        <v>0.200024067711318</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.795202521430305</v>
+        <v>0.795202510543668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15558057157744</v>
+        <v>0.155580570146743</v>
       </c>
       <c r="D9" t="n">
-        <v>5.11119424082135</v>
+        <v>5.11119421784891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000032012862116737</v>
+        <v>0.000000320128660025176</v>
       </c>
       <c r="F9" t="n">
-        <v>0.490270204444367</v>
+        <v>0.490270196361845</v>
       </c>
       <c r="G9" t="n">
-        <v>1.10013483841624</v>
+        <v>1.10013482472549</v>
       </c>
     </row>
     <row r="10">
@@ -651,22 +651,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.646574211013515</v>
+        <v>0.646574210271596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0655541189417174</v>
+        <v>0.0655541204771966</v>
       </c>
       <c r="D10" t="n">
-        <v>9.86321258605228</v>
+        <v>9.86321234370784</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.518090498849494</v>
+        <v>0.518090495098091</v>
       </c>
       <c r="G10" t="n">
-        <v>0.775057923177536</v>
+        <v>0.775057925445101</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.446706149308609</v>
+        <v>0.446706142029158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0660981481408827</v>
+        <v>0.0660981474464863</v>
       </c>
       <c r="D11" t="n">
-        <v>6.75822488031725</v>
+        <v>6.75822484118508</v>
       </c>
       <c r="E11" t="n">
         <v>0.0000000000139692701850436</v>
       </c>
       <c r="F11" t="n">
-        <v>0.317156159507686</v>
+        <v>0.317156153589227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.576256139109532</v>
+        <v>0.576256130469089</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.436153194746189</v>
+        <v>0.436153187351574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0647446805953883</v>
+        <v>0.0647446797946729</v>
       </c>
       <c r="D12" t="n">
-        <v>6.73651009990858</v>
+        <v>6.73651006900894</v>
       </c>
       <c r="E12" t="n">
         <v>0.0000000000162236890588474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.309255952588678</v>
+        <v>0.309255946763437</v>
       </c>
       <c r="G12" t="n">
-        <v>0.563050436903699</v>
+        <v>0.563050427939711</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.458564757709238</v>
+        <v>0.458564749989297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0738484503137532</v>
+        <v>0.0738484492760941</v>
       </c>
       <c r="D13" t="n">
-        <v>6.20953798977468</v>
+        <v>6.20953797248849</v>
       </c>
       <c r="E13" t="n">
         <v>0.000000000531406030290782</v>
       </c>
       <c r="F13" t="n">
-        <v>0.313824454780186</v>
+        <v>0.313824449094019</v>
       </c>
       <c r="G13" t="n">
-        <v>0.60330506063829</v>
+        <v>0.603305050884574</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.445947836639896</v>
+        <v>0.445947828862582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0684147135900678</v>
+        <v>0.0684147127225953</v>
       </c>
       <c r="D14" t="n">
-        <v>6.51830305556723</v>
+        <v>6.51830302453786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000000000711071201919822</v>
+        <v>0.0000000000711073422365871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.31185746199074</v>
+        <v>0.311857455913641</v>
       </c>
       <c r="G14" t="n">
-        <v>0.580038211289052</v>
+        <v>0.580038201811523</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.44742626000169</v>
+        <v>-1.44742628192784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.259625573387441</v>
+        <v>0.25962558038145</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.57505272349147</v>
+        <v>-5.57505265775906</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0000000247454909896305</v>
+        <v>0.0000000247455003155039</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.95628303330663</v>
+        <v>-1.9562830689408</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.938569486696742</v>
+        <v>-0.938569494914893</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.183347510878698</v>
+        <v>-0.183347511413525</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239546384410166</v>
+        <v>0.239546375194995</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.765394607521019</v>
+        <v>-0.765394639197842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.444036603055551</v>
+        <v>0.44403658419864</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.652849796949409</v>
+        <v>-0.652849779422835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.286154775192014</v>
+        <v>0.286154756595785</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0916737554393489</v>
+        <v>-0.0916737557067623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119773192205083</v>
+        <v>0.119773187597498</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.765394607521019</v>
+        <v>-0.765394639197842</v>
       </c>
       <c r="E17" t="n">
-        <v>0.444036603055551</v>
+        <v>0.44403658419864</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.326424898474705</v>
+        <v>-0.326424889711417</v>
       </c>
       <c r="G17" t="n">
-        <v>0.143077387596007</v>
+        <v>0.143077378297893</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.35503239386926</v>
+        <v>0.355032386322396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12164932964979</v>
+        <v>0.121649325216812</v>
       </c>
       <c r="D18" t="n">
-        <v>2.91849034344328</v>
+        <v>2.91849038775703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00351730769238912</v>
+        <v>0.00351730719246013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.116604089012231</v>
+        <v>0.116604090153843</v>
       </c>
       <c r="G18" t="n">
-        <v>0.593460698726288</v>
+        <v>0.593460682490948</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.183347510878698</v>
+        <v>-0.183347511413525</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239546384410166</v>
+        <v>0.239546375194995</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.765394607521019</v>
+        <v>-0.765394639197842</v>
       </c>
       <c r="E19" t="n">
-        <v>0.444036603055551</v>
+        <v>0.44403658419864</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.652849796949409</v>
+        <v>-0.652849779422835</v>
       </c>
       <c r="G19" t="n">
-        <v>0.286154775192014</v>
+        <v>0.286154756595785</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.446706149308609</v>
+        <v>0.446706142029158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0660981481408827</v>
+        <v>0.0660981474464863</v>
       </c>
       <c r="D20" t="n">
-        <v>6.75822488031725</v>
+        <v>6.75822484118508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00000000000698462991325688</v>
+        <v>0.00000000000698463179928028</v>
       </c>
       <c r="F20" t="n">
-        <v>0.317156159507686</v>
+        <v>0.317156153589227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.576256139109532</v>
+        <v>0.576256130469089</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183347510878698</v>
+        <v>0.183347511413525</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239546384410166</v>
+        <v>0.239546375194995</v>
       </c>
       <c r="D21" t="n">
-        <v>0.765394607521019</v>
+        <v>0.765394639197842</v>
       </c>
       <c r="E21" t="n">
-        <v>0.222018301527775</v>
+        <v>0.22201829209932</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.286154775192014</v>
+        <v>-0.286154756595785</v>
       </c>
       <c r="G21" t="n">
-        <v>0.652849796949409</v>
+        <v>0.652849779422835</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.263358638429911</v>
+        <v>0.263358630615633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232205488227182</v>
+        <v>0.232205479026841</v>
       </c>
       <c r="D22" t="n">
-        <v>1.13416198919575</v>
+        <v>1.13416200048058</v>
       </c>
       <c r="E22" t="n">
-        <v>0.12836330252697</v>
+        <v>0.128363300160596</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.191755755507904</v>
+        <v>-0.191755745289847</v>
       </c>
       <c r="G22" t="n">
-        <v>0.718473032367727</v>
+        <v>0.718473006521113</v>
       </c>
     </row>
     <row r="23">
@@ -950,13 +950,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.445947836639896</v>
+        <v>0.445947828862582</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0684147135900678</v>
+        <v>0.0684147127225953</v>
       </c>
       <c r="D23" t="n">
-        <v>6.51830305556723</v>
+        <v>6.51830302453786</v>
       </c>
       <c r="E23" t="n">
         <v>0.999999999964446</v>
@@ -969,13 +969,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458564757709238</v>
+        <v>0.458564749989297</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0738484503137532</v>
+        <v>0.0738484492760941</v>
       </c>
       <c r="D24" t="n">
-        <v>6.20953798977468</v>
+        <v>6.20953797248849</v>
       </c>
       <c r="E24" t="n">
         <v>0.999999999734297</v>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>1.44742626000169</v>
+        <v>1.44742628192784</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259625573387441</v>
+        <v>0.25962558038145</v>
       </c>
       <c r="D25" t="n">
-        <v>5.57505272349147</v>
+        <v>5.57505265775906</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999999987627255</v>
+        <v>0.99999998762725</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>1.44742626000169</v>
+        <v>1.44742628192784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259625573387441</v>
+        <v>0.25962558038145</v>
       </c>
       <c r="D26" t="n">
-        <v>5.57505272349147</v>
+        <v>5.57505265775906</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0000000123727454714841</v>
+        <v>0.0000000123727501433467</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
